--- a/PKO-Stats.xlsx
+++ b/PKO-Stats.xlsx
@@ -1,31 +1,206 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13512" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="11020"/>
   </bookViews>
   <sheets>
-    <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
-    <sheet name="Arkusz2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sparingi" sheetId="2" r:id="rId1"/>
+    <sheet name="Poprzednie sezony" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Maks Marcinowski</author>
+  </authors>
+  <commentList>
+    <comment ref="K2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Maks Marcinowski:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+1:0 z Zagłębiem</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Maks Marcinowski:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+4:2 ze Stalą
+1:0 z Podbeskidziem</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Maks Marcinowski:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+1:3 z Termalicą</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Maks Marcinowski:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+0:1 z Wisłą</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Maks Marcinowski:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+2:4 z Wisłą
+0:1 z ŁKSem</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Maks Marcinowski:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+1:2 z KSZO</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Maks Marcinowski:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+0:1 z Pogonią</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="134">
   <si>
     <t>bramki</t>
   </si>
@@ -90,56 +265,350 @@
     <t>Warta</t>
   </si>
   <si>
-    <t>strzały</t>
-  </si>
-  <si>
-    <t>strz./gole</t>
-  </si>
-  <si>
-    <t>cz. konta</t>
-  </si>
-  <si>
-    <t>str./mecz</t>
-  </si>
-  <si>
     <t>wygr. gosp.</t>
   </si>
   <si>
-    <t>gole zza 16</t>
-  </si>
-  <si>
-    <t>gole ze SFG</t>
-  </si>
-  <si>
-    <t>gole po rożnych</t>
-  </si>
-  <si>
-    <t>strac. po SFG</t>
-  </si>
-  <si>
-    <t>% z SFG</t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>s.c. przeciwko</t>
-  </si>
-  <si>
-    <t>"11" przeciwko</t>
-  </si>
-  <si>
-    <t>"11"</t>
+    <t>Zwycięstwa</t>
+  </si>
+  <si>
+    <t>Remisy</t>
+  </si>
+  <si>
+    <t>Porażki</t>
+  </si>
+  <si>
+    <t>Bramki +</t>
+  </si>
+  <si>
+    <t>Bramki -</t>
+  </si>
+  <si>
+    <t>Bilans</t>
+  </si>
+  <si>
+    <t>Strzelcy:</t>
+  </si>
+  <si>
+    <t>1 Żyro</t>
+  </si>
+  <si>
+    <t>1 Tomczyk</t>
+  </si>
+  <si>
+    <t>1 Malinowski</t>
+  </si>
+  <si>
+    <t>1 Nowak</t>
+  </si>
+  <si>
+    <t>Nowe nabytki:</t>
+  </si>
+  <si>
+    <t>Lopes</t>
+  </si>
+  <si>
+    <t>2 Forbes</t>
+  </si>
+  <si>
+    <t>1 Cebula</t>
+  </si>
+  <si>
+    <t>1 Petrasek</t>
+  </si>
+  <si>
+    <t>3 Silva</t>
+  </si>
+  <si>
+    <t>1 Boguski</t>
+  </si>
+  <si>
+    <t>1 Domański</t>
+  </si>
+  <si>
+    <t>1 Seweryn</t>
+  </si>
+  <si>
+    <t>2 Bortniczuk</t>
+  </si>
+  <si>
+    <t>1 Imaz</t>
+  </si>
+  <si>
+    <t>1 Struski</t>
+  </si>
+  <si>
+    <t>1 Toporkiewicz</t>
+  </si>
+  <si>
+    <t>1 Tiru</t>
+  </si>
+  <si>
+    <t>1 Baszłaj</t>
+  </si>
+  <si>
+    <t>1 Gach</t>
+  </si>
+  <si>
+    <t>2 Gutkovskis</t>
+  </si>
+  <si>
+    <t>1 Bator</t>
+  </si>
+  <si>
+    <t>1 Musiolik</t>
+  </si>
+  <si>
+    <t>Gorgon</t>
+  </si>
+  <si>
+    <t>1 Gorgon</t>
+  </si>
+  <si>
+    <t>1 Sadlok</t>
+  </si>
+  <si>
+    <t>1 Siplak</t>
+  </si>
+  <si>
+    <t>1 Ishak</t>
+  </si>
+  <si>
+    <t>1 Schwarz</t>
+  </si>
+  <si>
+    <t>2 Krawczyk</t>
+  </si>
+  <si>
+    <t>1 Ryczkowski</t>
+  </si>
+  <si>
+    <t>2 Satka</t>
+  </si>
+  <si>
+    <t>1 Szymczak</t>
+  </si>
+  <si>
+    <t>3 Rosołek</t>
+  </si>
+  <si>
+    <t>1 Wszołek</t>
+  </si>
+  <si>
+    <t>1 Mladenović</t>
+  </si>
+  <si>
+    <t>1 Rapa</t>
+  </si>
+  <si>
+    <t>1 Wdowiak</t>
+  </si>
+  <si>
+    <t>2 Steczyk</t>
+  </si>
+  <si>
+    <t>1 Parzyszek</t>
+  </si>
+  <si>
+    <t>2 Pyrka</t>
+  </si>
+  <si>
+    <t>1 Jaroch</t>
+  </si>
+  <si>
+    <t>1 Kuzimski</t>
+  </si>
+  <si>
+    <t>1 Laskowski</t>
+  </si>
+  <si>
+    <t>1 Danielak</t>
+  </si>
+  <si>
+    <t>1 Sheridan</t>
+  </si>
+  <si>
+    <t>1 Szwoch</t>
+  </si>
+  <si>
+    <t>1 Celeban</t>
+  </si>
+  <si>
+    <t>1 Pich</t>
+  </si>
+  <si>
+    <t>1 Baszkirow</t>
+  </si>
+  <si>
+    <t>1 Żubrowski</t>
+  </si>
+  <si>
+    <t>1 Bohar</t>
+  </si>
+  <si>
+    <t>1 Jimenez</t>
+  </si>
+  <si>
+    <t>1 Bochniewicz</t>
+  </si>
+  <si>
+    <t>1 Puljić</t>
+  </si>
+  <si>
+    <t>1 Chuca</t>
+  </si>
+  <si>
+    <t>1 Dadok</t>
+  </si>
+  <si>
+    <t>Alvarez</t>
+  </si>
+  <si>
+    <t>Rivaldinho</t>
+  </si>
+  <si>
+    <t>Nowak</t>
+  </si>
+  <si>
+    <t>Sobczyk</t>
+  </si>
+  <si>
+    <t>Steinbors</t>
+  </si>
+  <si>
+    <t>Augustyn</t>
+  </si>
+  <si>
+    <t>Mas</t>
+  </si>
+  <si>
+    <t>Sobczak</t>
+  </si>
+  <si>
+    <t>Bednarek</t>
+  </si>
+  <si>
+    <t>Malenica</t>
+  </si>
+  <si>
+    <t>Ishak</t>
+  </si>
+  <si>
+    <t>Czerwiński</t>
+  </si>
+  <si>
+    <t>Kopacz</t>
+  </si>
+  <si>
+    <t>Boruc</t>
+  </si>
+  <si>
+    <t>Juranović</t>
+  </si>
+  <si>
+    <t>Kapustka</t>
+  </si>
+  <si>
+    <t>Forssell</t>
+  </si>
+  <si>
+    <t>Tomczyk</t>
+  </si>
+  <si>
+    <t>Lipski</t>
+  </si>
+  <si>
+    <t>Hyjek</t>
+  </si>
+  <si>
+    <t>Świerczok</t>
+  </si>
+  <si>
+    <t>Rundić</t>
+  </si>
+  <si>
+    <t>Kocsis</t>
+  </si>
+  <si>
+    <t>Mata</t>
+  </si>
+  <si>
+    <t>Kucharczyk</t>
+  </si>
+  <si>
+    <t>Pindroch</t>
+  </si>
+  <si>
+    <t>Wilusz</t>
+  </si>
+  <si>
+    <t>Papanikolaou</t>
+  </si>
+  <si>
+    <t>Cebula</t>
+  </si>
+  <si>
+    <t>Gutkovskis</t>
+  </si>
+  <si>
+    <t>Sobota</t>
+  </si>
+  <si>
+    <t>Piasecki</t>
+  </si>
+  <si>
+    <t>Czyżycki</t>
+  </si>
+  <si>
+    <t>Kuzimski</t>
+  </si>
+  <si>
+    <t>Abramowicz</t>
+  </si>
+  <si>
+    <t>Mehremić</t>
+  </si>
+  <si>
+    <t>Yeboah</t>
+  </si>
+  <si>
+    <t>Beciraj</t>
+  </si>
+  <si>
+    <t>Zbozień</t>
+  </si>
+  <si>
+    <t>Szumilas</t>
+  </si>
+  <si>
+    <t>Lagator</t>
+  </si>
+  <si>
+    <t>Lesniak</t>
+  </si>
+  <si>
+    <t>Tuszyński</t>
+  </si>
+  <si>
+    <t>Zawada</t>
+  </si>
+  <si>
+    <t>Simić</t>
+  </si>
+  <si>
+    <t>Wójcicki</t>
+  </si>
+  <si>
+    <t>Żubrowski</t>
+  </si>
+  <si>
+    <t>Mraz</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,8 +626,21 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -167,24 +649,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -201,35 +671,395 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="21">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -524,7 +1354,7 @@
     </a:clrScheme>
     <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -559,7 +1389,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -736,27 +1566,1169 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Q33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q28" sqref="Q28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="15" thickBot="1">
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="15" thickBot="1">
+      <c r="A2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5">
+        <v>1</v>
+      </c>
+      <c r="E2" s="6">
+        <v>1</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0</v>
+      </c>
+      <c r="G2" s="6">
+        <v>1</v>
+      </c>
+      <c r="H2" s="5">
+        <v>2</v>
+      </c>
+      <c r="I2" s="6">
+        <v>1</v>
+      </c>
+      <c r="J2" s="5">
+        <v>2</v>
+      </c>
+      <c r="K2" s="6">
+        <v>1</v>
+      </c>
+      <c r="L2" s="5">
+        <v>2</v>
+      </c>
+      <c r="M2" s="6">
+        <v>1</v>
+      </c>
+      <c r="N2" s="5">
+        <v>0</v>
+      </c>
+      <c r="O2" s="6">
+        <v>0</v>
+      </c>
+      <c r="P2" s="5">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="15" thickBot="1">
+      <c r="A3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="9">
+        <v>0</v>
+      </c>
+      <c r="C3" s="10">
+        <v>1</v>
+      </c>
+      <c r="D3" s="9">
+        <v>1</v>
+      </c>
+      <c r="E3" s="10">
+        <v>1</v>
+      </c>
+      <c r="F3" s="9">
+        <v>0</v>
+      </c>
+      <c r="G3" s="10">
+        <v>0</v>
+      </c>
+      <c r="H3" s="9">
+        <v>0</v>
+      </c>
+      <c r="I3" s="10">
+        <v>0</v>
+      </c>
+      <c r="J3" s="9">
+        <v>0</v>
+      </c>
+      <c r="K3" s="10">
+        <v>0</v>
+      </c>
+      <c r="L3" s="9">
+        <v>1</v>
+      </c>
+      <c r="M3" s="10">
+        <v>0</v>
+      </c>
+      <c r="N3" s="9">
+        <v>1</v>
+      </c>
+      <c r="O3" s="10">
+        <v>1</v>
+      </c>
+      <c r="P3" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="15" thickBot="1">
+      <c r="A4" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="13">
+        <v>1</v>
+      </c>
+      <c r="C4" s="14">
+        <v>0</v>
+      </c>
+      <c r="D4" s="13">
+        <v>1</v>
+      </c>
+      <c r="E4" s="14">
+        <v>0</v>
+      </c>
+      <c r="F4" s="13">
+        <v>0</v>
+      </c>
+      <c r="G4" s="14">
+        <v>0</v>
+      </c>
+      <c r="H4" s="13">
+        <v>0</v>
+      </c>
+      <c r="I4" s="14">
+        <v>0</v>
+      </c>
+      <c r="J4" s="13">
+        <v>1</v>
+      </c>
+      <c r="K4" s="14">
+        <v>0</v>
+      </c>
+      <c r="L4" s="13">
+        <v>0</v>
+      </c>
+      <c r="M4" s="14">
+        <v>2</v>
+      </c>
+      <c r="N4" s="13">
+        <v>0</v>
+      </c>
+      <c r="O4" s="14">
+        <v>0</v>
+      </c>
+      <c r="P4" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="15" thickBot="1">
+      <c r="A5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="6">
+        <v>6</v>
+      </c>
+      <c r="D5" s="5">
+        <v>7</v>
+      </c>
+      <c r="E5" s="6">
+        <v>4</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6">
+        <v>6</v>
+      </c>
+      <c r="H5" s="5">
+        <v>6</v>
+      </c>
+      <c r="I5" s="6">
+        <v>2</v>
+      </c>
+      <c r="J5" s="5">
+        <v>3</v>
+      </c>
+      <c r="K5" s="6">
+        <v>1</v>
+      </c>
+      <c r="L5" s="5">
+        <v>10</v>
+      </c>
+      <c r="M5" s="6">
+        <v>4</v>
+      </c>
+      <c r="N5" s="5">
+        <v>2</v>
+      </c>
+      <c r="O5" s="6">
+        <v>3</v>
+      </c>
+      <c r="P5" s="5">
+        <v>6</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="15" thickBot="1">
+      <c r="A6" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="16">
+        <v>4</v>
+      </c>
+      <c r="C6" s="17">
+        <v>4</v>
+      </c>
+      <c r="D6" s="16">
+        <v>4</v>
+      </c>
+      <c r="E6" s="17">
+        <v>2</v>
+      </c>
+      <c r="F6" s="16">
+        <v>0</v>
+      </c>
+      <c r="G6" s="17">
+        <v>1</v>
+      </c>
+      <c r="H6" s="16">
+        <v>1</v>
+      </c>
+      <c r="I6" s="17">
+        <v>1</v>
+      </c>
+      <c r="J6" s="16">
+        <v>1</v>
+      </c>
+      <c r="K6" s="17">
+        <v>0</v>
+      </c>
+      <c r="L6" s="16">
+        <v>2</v>
+      </c>
+      <c r="M6" s="17">
+        <v>5</v>
+      </c>
+      <c r="N6" s="16">
+        <v>2</v>
+      </c>
+      <c r="O6" s="17">
+        <v>3</v>
+      </c>
+      <c r="P6" s="16">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="15" thickBot="1">
+      <c r="A7" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="8">
+        <f>B5-B6</f>
+        <v>-1</v>
+      </c>
+      <c r="C7" s="20">
+        <f>C5-C6</f>
+        <v>2</v>
+      </c>
+      <c r="D7" s="8">
+        <f t="shared" ref="D7:Q7" si="0">D5-D6</f>
+        <v>3</v>
+      </c>
+      <c r="E7" s="20">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F7" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="20">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H7" s="8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I7" s="20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J7" s="8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="K7" s="20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L7" s="8">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="M7" s="20">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="N7" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O7" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P7" s="8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="Q7" s="21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="22"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="24"/>
+    </row>
+    <row r="9" spans="1:17" ht="15" thickBot="1">
+      <c r="A9" s="25"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="27"/>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="I10" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="J10" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="K10" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="M10" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="N10" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="O10" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="P10" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q10" s="30" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="31"/>
+      <c r="B11" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="J11" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="K11" s="32"/>
+      <c r="L11" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="M11" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="N11" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="O11" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="P11" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q11" s="33" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="31"/>
+      <c r="B12" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="K12" s="32"/>
+      <c r="L12" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="M12" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="N12" s="32"/>
+      <c r="O12" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="P12" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q12" s="33" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="35"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="M13" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="N13" s="32"/>
+      <c r="O13" s="32"/>
+      <c r="P13" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q13" s="33"/>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="31"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="M14" s="32"/>
+      <c r="N14" s="32"/>
+      <c r="O14" s="32"/>
+      <c r="P14" s="32"/>
+      <c r="Q14" s="33"/>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="31"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="M15" s="32"/>
+      <c r="N15" s="32"/>
+      <c r="O15" s="32"/>
+      <c r="P15" s="32"/>
+      <c r="Q15" s="33"/>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="31"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="M16" s="34"/>
+      <c r="N16" s="32"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="32"/>
+      <c r="Q16" s="33"/>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="31"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="M17" s="32"/>
+      <c r="N17" s="32"/>
+      <c r="O17" s="32"/>
+      <c r="P17" s="32"/>
+      <c r="Q17" s="33"/>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="31"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="32"/>
+      <c r="N18" s="32"/>
+      <c r="O18" s="32"/>
+      <c r="P18" s="32"/>
+      <c r="Q18" s="33"/>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="35"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="32"/>
+      <c r="Q19" s="37"/>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="35"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="34"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="37"/>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="35"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="34"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="37"/>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="35"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="37"/>
+    </row>
+    <row r="23" spans="1:17" ht="15" thickBot="1">
+      <c r="A23" s="25"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="38"/>
+      <c r="O23" s="38"/>
+      <c r="P23" s="38"/>
+      <c r="Q23" s="39"/>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="E24" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="F24" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="G24" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="H24" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="I24" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="J24" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="K24" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="L24" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="M24" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="N24" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="O24" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="P24" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q24" s="30" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="35"/>
+      <c r="B25" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="E25" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="H25" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="I25" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="J25" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="K25" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="L25" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="M25" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="N25" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="O25" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="P25" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q25" s="33" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" s="35"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="E26" t="s">
+        <v>97</v>
+      </c>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="H26" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="I26" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="J26" s="32"/>
+      <c r="K26" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="L26" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="M26" s="32"/>
+      <c r="N26" s="32"/>
+      <c r="O26" s="32"/>
+      <c r="P26" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q26" s="33" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" s="31"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="E27" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="H27" s="32"/>
+      <c r="I27" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="M27" s="32"/>
+      <c r="N27" s="32"/>
+      <c r="O27" s="32"/>
+      <c r="P27" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q27" s="33" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" s="31"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="J28" s="32"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="M28" s="32"/>
+      <c r="N28" s="36"/>
+      <c r="O28" s="32"/>
+      <c r="P28" s="32"/>
+      <c r="Q28" s="33"/>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" s="31"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="J29" s="32"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="32"/>
+      <c r="M29" s="32"/>
+      <c r="N29" s="32"/>
+      <c r="O29" s="32"/>
+      <c r="P29" s="32"/>
+      <c r="Q29" s="33"/>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" s="31"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="32"/>
+      <c r="K30" s="32"/>
+      <c r="L30" s="32"/>
+      <c r="M30" s="32"/>
+      <c r="N30" s="32"/>
+      <c r="O30" s="32"/>
+      <c r="P30" s="32"/>
+      <c r="Q30" s="33"/>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" s="31"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="32"/>
+      <c r="K31" s="32"/>
+      <c r="L31" s="32"/>
+      <c r="M31" s="32"/>
+      <c r="N31" s="32"/>
+      <c r="O31" s="32"/>
+      <c r="P31" s="32"/>
+      <c r="Q31" s="33"/>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" s="31"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="32"/>
+      <c r="J32" s="32"/>
+      <c r="K32" s="32"/>
+      <c r="L32" s="32"/>
+      <c r="M32" s="32"/>
+      <c r="N32" s="32"/>
+      <c r="O32" s="32"/>
+      <c r="P32" s="32"/>
+      <c r="Q32" s="33"/>
+    </row>
+    <row r="33" spans="1:17" ht="15" thickBot="1">
+      <c r="A33" s="40"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="38"/>
+      <c r="J33" s="38"/>
+      <c r="K33" s="38"/>
+      <c r="L33" s="38"/>
+      <c r="M33" s="38"/>
+      <c r="N33" s="38"/>
+      <c r="O33" s="38"/>
+      <c r="P33" s="38"/>
+      <c r="Q33" s="39"/>
+    </row>
+  </sheetData>
+  <sortState ref="A3:A18">
+    <sortCondition ref="A3"/>
+  </sortState>
+  <conditionalFormatting sqref="B7:Q7">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="num" val="&quot;&lt;0&quot;"/>
+        <cfvo type="num" val="&quot;&gt;0&quot;"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AG10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="31" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33">
       <c r="B1" s="2">
         <v>1</v>
       </c>
@@ -854,7 +2826,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -957,7 +2929,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1060,7 +3032,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1163,9 +3135,9 @@
         <v>4.2666666666666666</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:33">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
@@ -1266,7 +3238,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:33">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1369,7 +3341,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:33">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -1472,7 +3444,7 @@
         <v>1.8333333333333333</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:33">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1575,9 +3547,9 @@
         <v>4.5333333333333332</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:33">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B10" s="1">
         <v>0</v>
@@ -1680,701 +3652,63 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B7:AE7">
-    <cfRule type="top10" dxfId="18" priority="15" bottom="1" rank="10"/>
-    <cfRule type="cellIs" dxfId="17" priority="18" operator="lessThan">
+    <cfRule type="top10" dxfId="20" priority="15" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="19" priority="18" operator="lessThan">
       <formula>$AG$7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="19" operator="greaterThan">
       <formula>$AG$7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:AE2">
-    <cfRule type="top10" dxfId="15" priority="14" bottom="1" rank="10"/>
-    <cfRule type="cellIs" dxfId="14" priority="16" operator="lessThan">
+    <cfRule type="top10" dxfId="17" priority="14" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="16" priority="16" operator="lessThan">
       <formula>$AG$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="17" operator="greaterThan">
       <formula>$AG$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:AE9">
-    <cfRule type="top10" dxfId="12" priority="1" bottom="1" rank="10"/>
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="lessThan">
+    <cfRule type="top10" dxfId="14" priority="1" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="13" priority="12" operator="lessThan">
       <formula>$AG$9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="greaterThan">
       <formula>$AG$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:AE4">
-    <cfRule type="top10" dxfId="9" priority="4" bottom="1" rank="10"/>
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="lessThan">
+    <cfRule type="top10" dxfId="11" priority="4" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="lessThan">
       <formula>$AG$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="greaterThan">
       <formula>$AG$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:AE5">
-    <cfRule type="top10" dxfId="6" priority="3" percent="1" bottom="1" rank="10"/>
-    <cfRule type="cellIs" dxfId="5" priority="8" operator="greaterThan">
+    <cfRule type="top10" dxfId="8" priority="3" percent="1" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="greaterThan">
       <formula>$AG$5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="lessThan">
       <formula>$AG$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:AE10">
-    <cfRule type="top10" dxfId="3" priority="2" bottom="1" rank="10"/>
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="greaterThan">
+    <cfRule type="top10" dxfId="5" priority="2" bottom="1" rank="10"/>
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
       <formula>$AG$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="lessThan">
       <formula>$AG$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="7" operator="greaterThan">
       <formula>"3,5$AG$10"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T18"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.44140625" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.77734375" customWidth="1"/>
-    <col min="8" max="8" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="9.77734375" customWidth="1"/>
-    <col min="12" max="12" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.33203125" customWidth="1"/>
-    <col min="14" max="15" width="9.77734375" customWidth="1"/>
-    <col min="16" max="16" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="20" width="9.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="L1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1">
-        <v>24</v>
-      </c>
-      <c r="C3" s="1">
-        <v>34</v>
-      </c>
-      <c r="D3" s="1">
-        <v>14</v>
-      </c>
-      <c r="E3" s="1">
-        <v>6</v>
-      </c>
-      <c r="F3" s="1">
-        <v>5</v>
-      </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1">
-        <v>15</v>
-      </c>
-      <c r="M3" s="1">
-        <v>8</v>
-      </c>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1">
-        <v>18</v>
-      </c>
-      <c r="C4" s="1">
-        <v>26</v>
-      </c>
-      <c r="D4" s="1">
-        <v>7</v>
-      </c>
-      <c r="E4" s="1">
-        <v>10</v>
-      </c>
-      <c r="F4" s="1">
-        <v>7</v>
-      </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1">
-        <v>17</v>
-      </c>
-      <c r="M4" s="1">
-        <v>6</v>
-      </c>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1">
-        <v>16</v>
-      </c>
-      <c r="C5" s="1">
-        <v>39</v>
-      </c>
-      <c r="D5" s="1">
-        <v>7</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>7</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1">
-        <v>11</v>
-      </c>
-      <c r="M5" s="1">
-        <v>6</v>
-      </c>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="1">
-        <v>15</v>
-      </c>
-      <c r="C6" s="1">
-        <v>31</v>
-      </c>
-      <c r="D6" s="1">
-        <v>5</v>
-      </c>
-      <c r="E6" s="1">
-        <v>3</v>
-      </c>
-      <c r="F6" s="1">
-        <v>9</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1">
-        <v>21</v>
-      </c>
-      <c r="M6" s="1">
-        <v>8</v>
-      </c>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="1">
-        <v>19</v>
-      </c>
-      <c r="C7" s="1">
-        <v>37</v>
-      </c>
-      <c r="D7" s="1">
-        <v>7</v>
-      </c>
-      <c r="E7" s="1">
-        <v>7</v>
-      </c>
-      <c r="F7" s="1">
-        <v>8</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1">
-        <v>19</v>
-      </c>
-      <c r="M7" s="1">
-        <v>7</v>
-      </c>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="1">
-        <v>12</v>
-      </c>
-      <c r="C8" s="1">
-        <v>32</v>
-      </c>
-      <c r="D8" s="1">
-        <v>4</v>
-      </c>
-      <c r="E8" s="1">
-        <v>8</v>
-      </c>
-      <c r="F8" s="1">
-        <v>6</v>
-      </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1">
-        <v>14</v>
-      </c>
-      <c r="M8" s="1">
-        <v>5</v>
-      </c>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="1">
-        <v>18</v>
-      </c>
-      <c r="C9" s="1">
-        <v>38</v>
-      </c>
-      <c r="D9" s="1">
-        <v>9</v>
-      </c>
-      <c r="E9" s="1">
-        <v>6</v>
-      </c>
-      <c r="F9" s="1">
-        <v>6</v>
-      </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1">
-        <v>16</v>
-      </c>
-      <c r="M9" s="1">
-        <v>6</v>
-      </c>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="1">
-        <v>16</v>
-      </c>
-      <c r="C10" s="1">
-        <v>33</v>
-      </c>
-      <c r="D10" s="1">
-        <v>7</v>
-      </c>
-      <c r="E10" s="1">
-        <v>5</v>
-      </c>
-      <c r="F10" s="1">
-        <v>4</v>
-      </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1">
-        <v>12</v>
-      </c>
-      <c r="M10" s="1">
-        <v>4</v>
-      </c>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="1">
-        <v>15</v>
-      </c>
-      <c r="C11" s="1">
-        <v>29</v>
-      </c>
-      <c r="D11" s="1">
-        <v>9</v>
-      </c>
-      <c r="E11" s="1">
-        <v>5</v>
-      </c>
-      <c r="F11" s="1">
-        <v>5</v>
-      </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1">
-        <v>20</v>
-      </c>
-      <c r="M11" s="1">
-        <v>8</v>
-      </c>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="1">
-        <v>24</v>
-      </c>
-      <c r="C12" s="1">
-        <v>47</v>
-      </c>
-      <c r="D12" s="1">
-        <v>8</v>
-      </c>
-      <c r="E12" s="1">
-        <v>8</v>
-      </c>
-      <c r="F12" s="1">
-        <v>8</v>
-      </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1">
-        <v>18</v>
-      </c>
-      <c r="M12" s="1">
-        <v>9</v>
-      </c>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="1">
-        <v>15</v>
-      </c>
-      <c r="C13" s="1">
-        <v>34</v>
-      </c>
-      <c r="D13" s="1">
-        <v>4</v>
-      </c>
-      <c r="E13" s="1">
-        <v>7</v>
-      </c>
-      <c r="F13" s="1">
-        <v>11</v>
-      </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1">
-        <v>20</v>
-      </c>
-      <c r="M13" s="1">
-        <v>5</v>
-      </c>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="1">
-        <v>21</v>
-      </c>
-      <c r="C14" s="1">
-        <v>47</v>
-      </c>
-      <c r="D14" s="1">
-        <v>9</v>
-      </c>
-      <c r="E14" s="1">
-        <v>5</v>
-      </c>
-      <c r="F14" s="1">
-        <v>4</v>
-      </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1">
-        <v>12</v>
-      </c>
-      <c r="M14" s="1">
-        <v>6</v>
-      </c>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="1">
-        <v>19</v>
-      </c>
-      <c r="C15" s="1">
-        <v>31</v>
-      </c>
-      <c r="D15" s="1">
-        <v>7</v>
-      </c>
-      <c r="E15" s="1">
-        <v>6</v>
-      </c>
-      <c r="F15" s="1">
-        <v>7</v>
-      </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1">
-        <v>16</v>
-      </c>
-      <c r="M15" s="1">
-        <v>5</v>
-      </c>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="L1:S1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/PKO-Stats.xlsx
+++ b/PKO-Stats.xlsx
@@ -1,18 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\EkstraModel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="11020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19416" windowHeight="11016" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sparingi" sheetId="2" r:id="rId1"/>
     <sheet name="Poprzednie sezony" sheetId="1" r:id="rId2"/>
+    <sheet name="I liga" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +31,7 @@
     <author>Maks Marcinowski</author>
   </authors>
   <commentList>
-    <comment ref="K2" authorId="0">
+    <comment ref="K2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -49,7 +55,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P2" authorId="0">
+    <comment ref="P2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -74,7 +80,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="0">
+    <comment ref="B4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -98,7 +104,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J4" authorId="0">
+    <comment ref="J4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -122,7 +128,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M4" authorId="0">
+    <comment ref="M4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -147,7 +153,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P4" authorId="0">
+    <comment ref="P4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -171,7 +177,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q4" authorId="0">
+    <comment ref="Q4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -200,7 +206,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="205">
   <si>
     <t>bramki</t>
   </si>
@@ -602,13 +608,226 @@
   </si>
   <si>
     <t>Mraz</t>
+  </si>
+  <si>
+    <t>1 Kante</t>
+  </si>
+  <si>
+    <t>1 Fila</t>
+  </si>
+  <si>
+    <t>1 Zwoliński</t>
+  </si>
+  <si>
+    <t>1 Gajos</t>
+  </si>
+  <si>
+    <t>1 Kałuziński</t>
+  </si>
+  <si>
+    <t>Reese</t>
+  </si>
+  <si>
+    <t>Radomiak</t>
+  </si>
+  <si>
+    <t>Arka</t>
+  </si>
+  <si>
+    <t>Korona</t>
+  </si>
+  <si>
+    <t>ŁKS</t>
+  </si>
+  <si>
+    <t>Chrobry</t>
+  </si>
+  <si>
+    <t>Puszcza</t>
+  </si>
+  <si>
+    <t>Tychy</t>
+  </si>
+  <si>
+    <t>Miedź</t>
+  </si>
+  <si>
+    <t>Termalica</t>
+  </si>
+  <si>
+    <t>Odra</t>
+  </si>
+  <si>
+    <t>Stomil</t>
+  </si>
+  <si>
+    <t>Sandecja</t>
+  </si>
+  <si>
+    <t>Bełchatów</t>
+  </si>
+  <si>
+    <t>Jastrzębie</t>
+  </si>
+  <si>
+    <t>Sosnowiec</t>
+  </si>
+  <si>
+    <t>Widzew</t>
+  </si>
+  <si>
+    <t>Łęczna</t>
+  </si>
+  <si>
+    <t>Resovia</t>
+  </si>
+  <si>
+    <t>1 Demianiuk</t>
+  </si>
+  <si>
+    <t>1 Hebel</t>
+  </si>
+  <si>
+    <t>1 Klisiewicz</t>
+  </si>
+  <si>
+    <t>2 Wolsztyński</t>
+  </si>
+  <si>
+    <t>2 Bondarenko</t>
+  </si>
+  <si>
+    <t>1 Fundambu</t>
+  </si>
+  <si>
+    <t>1 Szarek</t>
+  </si>
+  <si>
+    <t>1 Długosz</t>
+  </si>
+  <si>
+    <t>1 Sowiński</t>
+  </si>
+  <si>
+    <t>1 Ratajczyk</t>
+  </si>
+  <si>
+    <t>1 Pirulo</t>
+  </si>
+  <si>
+    <t>1 Sajdak</t>
+  </si>
+  <si>
+    <t>2 Misak</t>
+  </si>
+  <si>
+    <t>1 Mikinic</t>
+  </si>
+  <si>
+    <t>2 Markiewicz</t>
+  </si>
+  <si>
+    <t>1 Marciniak</t>
+  </si>
+  <si>
+    <t>1 Danch</t>
+  </si>
+  <si>
+    <t>1 A.Siemaszko</t>
+  </si>
+  <si>
+    <t>1 Rumin</t>
+  </si>
+  <si>
+    <t>2 Łukowski</t>
+  </si>
+  <si>
+    <t>1 Drzazga</t>
+  </si>
+  <si>
+    <t>1 Matuszek</t>
+  </si>
+  <si>
+    <t>1 Danielewicz</t>
+  </si>
+  <si>
+    <t>1 Sokół</t>
+  </si>
+  <si>
+    <t>1 Szymański</t>
+  </si>
+  <si>
+    <t>1 Podliński</t>
+  </si>
+  <si>
+    <t>1 Warnecki</t>
+  </si>
+  <si>
+    <t>2 Banaszak</t>
+  </si>
+  <si>
+    <t>1 Zalepa</t>
+  </si>
+  <si>
+    <t>1 Feret</t>
+  </si>
+  <si>
+    <t>1 Karbowy</t>
+  </si>
+  <si>
+    <t>1 Sangowski</t>
+  </si>
+  <si>
+    <t>1 D.Nowak</t>
+  </si>
+  <si>
+    <t>2 Wlazło</t>
+  </si>
+  <si>
+    <t>1 Bonecki</t>
+  </si>
+  <si>
+    <t>1 Hilbrycht</t>
+  </si>
+  <si>
+    <t>1 Ilków-Gołąb</t>
+  </si>
+  <si>
+    <t>3 Ojamaa</t>
+  </si>
+  <si>
+    <t>1 Tanżyna</t>
+  </si>
+  <si>
+    <t>1 Prochownik</t>
+  </si>
+  <si>
+    <t>1 Kr.Nowak</t>
+  </si>
+  <si>
+    <t>1 Szymura</t>
+  </si>
+  <si>
+    <t>1 Dominguez</t>
+  </si>
+  <si>
+    <t>1 Gryszkiewicz</t>
+  </si>
+  <si>
+    <t>3 Żytek</t>
+  </si>
+  <si>
+    <t>2 Stefanik</t>
+  </si>
+  <si>
+    <t>1 Mikołajczyk</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1035,7 +1254,7 @@
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="23">
     <dxf>
       <font>
         <condense val="0"/>
@@ -1298,6 +1517,30 @@
         <horizontal/>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1354,7 +1597,7 @@
     </a:clrScheme>
     <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1389,7 +1632,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1566,41 +1809,42 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" thickBot="1">
+    <row r="1" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>13</v>
       </c>
@@ -1650,7 +1894,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15" thickBot="1">
+    <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>22</v>
       </c>
@@ -1667,10 +1911,10 @@
         <v>1</v>
       </c>
       <c r="F2" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2" s="5">
         <v>2</v>
@@ -1703,7 +1947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15" thickBot="1">
+    <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>23</v>
       </c>
@@ -1756,7 +2000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="15" thickBot="1">
+    <row r="4" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
         <v>24</v>
       </c>
@@ -1809,7 +2053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="15" thickBot="1">
+    <row r="5" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>25</v>
       </c>
@@ -1826,10 +2070,10 @@
         <v>4</v>
       </c>
       <c r="F5" s="5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G5" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H5" s="5">
         <v>6</v>
@@ -1862,7 +2106,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="15" thickBot="1">
+    <row r="6" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
         <v>26</v>
       </c>
@@ -1915,7 +2159,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="15" thickBot="1">
+    <row r="7" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="19" t="s">
         <v>27</v>
       </c>
@@ -1937,11 +2181,11 @@
       </c>
       <c r="F7" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G7" s="20">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H7" s="8">
         <f t="shared" si="0"/>
@@ -1984,7 +2228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="22"/>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
@@ -2003,7 +2247,7 @@
       <c r="P8" s="23"/>
       <c r="Q8" s="24"/>
     </row>
-    <row r="9" spans="1:17" ht="15" thickBot="1">
+    <row r="9" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="25"/>
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
@@ -2022,7 +2266,7 @@
       <c r="P9" s="26"/>
       <c r="Q9" s="27"/>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="s">
         <v>28</v>
       </c>
@@ -2036,9 +2280,11 @@
         <v>42</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="29"/>
+        <v>60</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>135</v>
+      </c>
       <c r="G10" s="29" t="s">
         <v>62</v>
       </c>
@@ -2073,7 +2319,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="31"/>
       <c r="B11" s="32" t="s">
         <v>65</v>
@@ -2085,14 +2331,16 @@
         <v>43</v>
       </c>
       <c r="E11" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="F11" s="32"/>
+        <v>61</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>136</v>
+      </c>
       <c r="G11" s="32" t="s">
         <v>63</v>
       </c>
       <c r="H11" s="32" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="I11" s="32" t="s">
         <v>75</v>
@@ -2120,7 +2368,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="31"/>
       <c r="B12" s="32" t="s">
         <v>66</v>
@@ -2132,14 +2380,16 @@
         <v>44</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="F12" s="32"/>
+        <v>56</v>
+      </c>
+      <c r="F12" s="32" t="s">
+        <v>137</v>
+      </c>
       <c r="G12" s="32" t="s">
         <v>64</v>
       </c>
       <c r="H12" s="32" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="I12" s="32"/>
       <c r="J12" s="32" t="s">
@@ -2163,7 +2413,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="35"/>
       <c r="B13" s="34"/>
       <c r="C13" s="32" t="s">
@@ -2173,10 +2423,14 @@
         <v>45</v>
       </c>
       <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
+      <c r="F13" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="G13" s="32" t="s">
+        <v>134</v>
+      </c>
       <c r="H13" s="32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I13" s="32"/>
       <c r="J13" s="32"/>
@@ -2194,7 +2448,7 @@
       </c>
       <c r="Q13" s="33"/>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="31"/>
       <c r="B14" s="32"/>
       <c r="C14" s="32" t="s">
@@ -2219,7 +2473,7 @@
       <c r="P14" s="32"/>
       <c r="Q14" s="33"/>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="31"/>
       <c r="B15" s="32"/>
       <c r="C15" s="32"/>
@@ -2242,7 +2496,7 @@
       <c r="P15" s="32"/>
       <c r="Q15" s="33"/>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="31"/>
       <c r="B16" s="32"/>
       <c r="C16" s="32"/>
@@ -2263,7 +2517,7 @@
       <c r="P16" s="32"/>
       <c r="Q16" s="33"/>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="31"/>
       <c r="B17" s="32"/>
       <c r="C17" s="32"/>
@@ -2284,7 +2538,7 @@
       <c r="P17" s="32"/>
       <c r="Q17" s="33"/>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="31"/>
       <c r="B18" s="32"/>
       <c r="C18" s="32"/>
@@ -2303,7 +2557,7 @@
       <c r="P18" s="32"/>
       <c r="Q18" s="33"/>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="35"/>
       <c r="B19" s="34"/>
       <c r="C19" s="36"/>
@@ -2322,7 +2576,7 @@
       <c r="P19" s="32"/>
       <c r="Q19" s="37"/>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="35"/>
       <c r="B20" s="32"/>
       <c r="C20" s="36"/>
@@ -2341,7 +2595,7 @@
       <c r="P20" s="36"/>
       <c r="Q20" s="37"/>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="35"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
@@ -2360,7 +2614,7 @@
       <c r="P21" s="36"/>
       <c r="Q21" s="37"/>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="35"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -2378,7 +2632,7 @@
       <c r="P22" s="36"/>
       <c r="Q22" s="37"/>
     </row>
-    <row r="23" spans="1:17" ht="15" thickBot="1">
+    <row r="23" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="25"/>
       <c r="B23" s="38"/>
       <c r="C23" s="38"/>
@@ -2397,7 +2651,7 @@
       <c r="P23" s="38"/>
       <c r="Q23" s="39"/>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="28" t="s">
         <v>33</v>
       </c>
@@ -2450,7 +2704,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="35"/>
       <c r="B25" s="32" t="s">
         <v>87</v>
@@ -2499,7 +2753,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="35"/>
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
@@ -2536,7 +2790,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="31"/>
       <c r="B27" s="32"/>
       <c r="C27" s="32"/>
@@ -2569,7 +2823,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="31"/>
       <c r="B28" s="32"/>
       <c r="C28" s="32"/>
@@ -2590,9 +2844,11 @@
       <c r="N28" s="36"/>
       <c r="O28" s="32"/>
       <c r="P28" s="32"/>
-      <c r="Q28" s="33"/>
-    </row>
-    <row r="29" spans="1:17">
+      <c r="Q28" s="33" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="31"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
@@ -2613,7 +2869,7 @@
       <c r="P29" s="32"/>
       <c r="Q29" s="33"/>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="31"/>
       <c r="B30" s="32"/>
       <c r="C30" s="32"/>
@@ -2632,7 +2888,7 @@
       <c r="P30" s="32"/>
       <c r="Q30" s="33"/>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="31"/>
       <c r="B31" s="32"/>
       <c r="C31" s="32"/>
@@ -2651,7 +2907,7 @@
       <c r="P31" s="32"/>
       <c r="Q31" s="33"/>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="31"/>
       <c r="B32" s="32"/>
       <c r="C32" s="32"/>
@@ -2670,7 +2926,7 @@
       <c r="P32" s="32"/>
       <c r="Q32" s="33"/>
     </row>
-    <row r="33" spans="1:17" ht="15" thickBot="1">
+    <row r="33" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="40"/>
       <c r="B33" s="38"/>
       <c r="C33" s="38"/>
@@ -2690,14 +2946,14 @@
       <c r="Q33" s="39"/>
     </row>
   </sheetData>
-  <sortState ref="A3:A18">
-    <sortCondition ref="A3"/>
+  <sortState ref="H10:H13">
+    <sortCondition descending="1" ref="H10"/>
   </sortState>
   <conditionalFormatting sqref="B7:Q7">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="colorScale" priority="3">
@@ -2715,20 +2971,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="31" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B1" s="2">
         <v>1</v>
       </c>
@@ -2826,7 +3082,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:33">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2929,7 +3185,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:33">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3032,7 +3288,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -3135,7 +3391,7 @@
         <v>4.2666666666666666</v>
       </c>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -3238,7 +3494,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -3341,7 +3597,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="8" spans="1:33">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -3444,7 +3700,7 @@
         <v>1.8333333333333333</v>
       </c>
     </row>
-    <row r="9" spans="1:33">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -3547,7 +3803,7 @@
         <v>4.5333333333333332</v>
       </c>
     </row>
-    <row r="10" spans="1:33">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -3711,4 +3967,912 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I1" t="s">
+        <v>145</v>
+      </c>
+      <c r="J1" t="s">
+        <v>146</v>
+      </c>
+      <c r="K1" t="s">
+        <v>149</v>
+      </c>
+      <c r="L1" t="s">
+        <v>150</v>
+      </c>
+      <c r="M1" t="s">
+        <v>154</v>
+      </c>
+      <c r="N1" t="s">
+        <v>151</v>
+      </c>
+      <c r="O1" t="s">
+        <v>152</v>
+      </c>
+      <c r="P1" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>155</v>
+      </c>
+      <c r="R1" t="s">
+        <v>156</v>
+      </c>
+      <c r="S1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5">
+        <v>1</v>
+      </c>
+      <c r="E2" s="6">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5">
+        <v>1</v>
+      </c>
+      <c r="G2" s="6">
+        <v>1</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="6">
+        <v>2</v>
+      </c>
+      <c r="J2" s="5">
+        <v>0</v>
+      </c>
+      <c r="K2" s="6">
+        <v>1</v>
+      </c>
+      <c r="L2" s="5">
+        <v>0</v>
+      </c>
+      <c r="M2" s="6">
+        <v>1</v>
+      </c>
+      <c r="N2" s="5">
+        <v>0</v>
+      </c>
+      <c r="O2" s="6">
+        <v>0</v>
+      </c>
+      <c r="P2" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="7">
+        <v>2</v>
+      </c>
+      <c r="R2" s="7">
+        <v>0</v>
+      </c>
+      <c r="S2" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="9">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10">
+        <v>0</v>
+      </c>
+      <c r="D3" s="9">
+        <v>1</v>
+      </c>
+      <c r="E3" s="10">
+        <v>1</v>
+      </c>
+      <c r="F3" s="9">
+        <v>0</v>
+      </c>
+      <c r="G3" s="10">
+        <v>0</v>
+      </c>
+      <c r="H3" s="9">
+        <v>0</v>
+      </c>
+      <c r="I3" s="10">
+        <v>0</v>
+      </c>
+      <c r="J3" s="9">
+        <v>0</v>
+      </c>
+      <c r="K3" s="10">
+        <v>0</v>
+      </c>
+      <c r="L3" s="9">
+        <v>1</v>
+      </c>
+      <c r="M3" s="10">
+        <v>0</v>
+      </c>
+      <c r="N3" s="9">
+        <v>0</v>
+      </c>
+      <c r="O3" s="10">
+        <v>0</v>
+      </c>
+      <c r="P3" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="11">
+        <v>0</v>
+      </c>
+      <c r="R3" s="11">
+        <v>1</v>
+      </c>
+      <c r="S3" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="13">
+        <v>1</v>
+      </c>
+      <c r="C4" s="14">
+        <v>2</v>
+      </c>
+      <c r="D4" s="13">
+        <v>1</v>
+      </c>
+      <c r="E4" s="14">
+        <v>0</v>
+      </c>
+      <c r="F4" s="13">
+        <v>0</v>
+      </c>
+      <c r="G4" s="14">
+        <v>1</v>
+      </c>
+      <c r="H4" s="13">
+        <v>1</v>
+      </c>
+      <c r="I4" s="14">
+        <v>1</v>
+      </c>
+      <c r="J4" s="13">
+        <v>2</v>
+      </c>
+      <c r="K4" s="14">
+        <v>2</v>
+      </c>
+      <c r="L4" s="13">
+        <v>1</v>
+      </c>
+      <c r="M4" s="14">
+        <v>1</v>
+      </c>
+      <c r="N4" s="13">
+        <v>0</v>
+      </c>
+      <c r="O4" s="14">
+        <v>2</v>
+      </c>
+      <c r="P4" s="13">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="15">
+        <v>0</v>
+      </c>
+      <c r="R4" s="15">
+        <v>0</v>
+      </c>
+      <c r="S4" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="5">
+        <v>5</v>
+      </c>
+      <c r="C5" s="6">
+        <v>4</v>
+      </c>
+      <c r="D5" s="5">
+        <v>5</v>
+      </c>
+      <c r="E5" s="6">
+        <v>3</v>
+      </c>
+      <c r="F5" s="5">
+        <v>5</v>
+      </c>
+      <c r="G5" s="6">
+        <v>4</v>
+      </c>
+      <c r="H5" s="5">
+        <v>1</v>
+      </c>
+      <c r="I5" s="6">
+        <v>7</v>
+      </c>
+      <c r="J5" s="5">
+        <v>2</v>
+      </c>
+      <c r="K5" s="6">
+        <v>2</v>
+      </c>
+      <c r="L5" s="5">
+        <v>1</v>
+      </c>
+      <c r="M5" s="6">
+        <v>2</v>
+      </c>
+      <c r="N5" s="5">
+        <v>0</v>
+      </c>
+      <c r="O5" s="6">
+        <v>2</v>
+      </c>
+      <c r="P5" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>13</v>
+      </c>
+      <c r="R5" s="7">
+        <v>1</v>
+      </c>
+      <c r="S5" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="16">
+        <v>1</v>
+      </c>
+      <c r="C6" s="17">
+        <v>9</v>
+      </c>
+      <c r="D6" s="16">
+        <v>6</v>
+      </c>
+      <c r="E6" s="17">
+        <v>3</v>
+      </c>
+      <c r="F6" s="16">
+        <v>1</v>
+      </c>
+      <c r="G6" s="17">
+        <v>3</v>
+      </c>
+      <c r="H6" s="16">
+        <v>2</v>
+      </c>
+      <c r="I6" s="17">
+        <v>4</v>
+      </c>
+      <c r="J6" s="16">
+        <v>4</v>
+      </c>
+      <c r="K6" s="17">
+        <v>5</v>
+      </c>
+      <c r="L6" s="16">
+        <v>2</v>
+      </c>
+      <c r="M6" s="17">
+        <v>1</v>
+      </c>
+      <c r="N6" s="16">
+        <v>0</v>
+      </c>
+      <c r="O6" s="17">
+        <v>8</v>
+      </c>
+      <c r="P6" s="16">
+        <v>7</v>
+      </c>
+      <c r="Q6" s="18">
+        <v>1</v>
+      </c>
+      <c r="R6" s="18">
+        <v>1</v>
+      </c>
+      <c r="S6" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="8">
+        <f>B5-B6</f>
+        <v>4</v>
+      </c>
+      <c r="C7" s="20">
+        <f>C5-C6</f>
+        <v>-5</v>
+      </c>
+      <c r="D7" s="8">
+        <f t="shared" ref="D7:S7" si="0">D5-D6</f>
+        <v>-1</v>
+      </c>
+      <c r="E7" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G7" s="20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H7" s="8">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="I7" s="20">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="J7" s="8">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="K7" s="20">
+        <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
+      <c r="L7" s="8">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="M7" s="20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N7" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O7" s="20">
+        <f t="shared" si="0"/>
+        <v>-6</v>
+      </c>
+      <c r="P7" s="8">
+        <f t="shared" si="0"/>
+        <v>-6</v>
+      </c>
+      <c r="Q7" s="21">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="R7" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S7" s="21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" s="22"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
+      <c r="S8" s="24"/>
+    </row>
+    <row r="9" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="25"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="27"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>172</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="H10" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="I10" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="J10" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="K10" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="P10" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q10" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="R10" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="S10" s="30" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" s="31"/>
+      <c r="B11" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>182</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="G11" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="H11" s="32"/>
+      <c r="I11" s="34" t="s">
+        <v>203</v>
+      </c>
+      <c r="J11" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="K11" s="32" t="s">
+        <v>192</v>
+      </c>
+      <c r="L11" s="32"/>
+      <c r="M11" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="N11" s="32"/>
+      <c r="O11" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="P11" s="32"/>
+      <c r="Q11" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="R11" s="32"/>
+      <c r="S11" s="33" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" s="31"/>
+      <c r="B12" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="E12" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="F12" s="32" t="s">
+        <v>179</v>
+      </c>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="32"/>
+      <c r="P12" s="32"/>
+      <c r="Q12" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="R12" s="32"/>
+      <c r="S12" s="33" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" s="35"/>
+      <c r="B13" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="32"/>
+      <c r="N13" s="32"/>
+      <c r="O13" s="32"/>
+      <c r="P13" s="32"/>
+      <c r="Q13" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="R13" s="32"/>
+      <c r="S13" s="33" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14" s="31"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32" t="s">
+        <v>201</v>
+      </c>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="32"/>
+      <c r="N14" s="32"/>
+      <c r="O14" s="32"/>
+      <c r="P14" s="32"/>
+      <c r="Q14" s="32" t="s">
+        <v>196</v>
+      </c>
+      <c r="R14" s="32"/>
+      <c r="S14" s="33"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15" s="31"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="32"/>
+      <c r="O15" s="32"/>
+      <c r="P15" s="32"/>
+      <c r="Q15" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="R15" s="32"/>
+      <c r="S15" s="33"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16" s="31"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="32"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="32"/>
+      <c r="Q16" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="R16" s="32"/>
+      <c r="S16" s="33"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A17" s="31"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="32"/>
+      <c r="O17" s="32"/>
+      <c r="P17" s="32"/>
+      <c r="Q17" s="32"/>
+      <c r="R17" s="32"/>
+      <c r="S17" s="33"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A18" s="31"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="32"/>
+      <c r="N18" s="32"/>
+      <c r="O18" s="32"/>
+      <c r="P18" s="32"/>
+      <c r="Q18" s="32"/>
+      <c r="R18" s="32"/>
+      <c r="S18" s="33"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A19" s="35"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="32"/>
+      <c r="Q19" s="32"/>
+      <c r="R19" s="32"/>
+      <c r="S19" s="37"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A20" s="35"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="34"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="36"/>
+      <c r="S20" s="37"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A21" s="35"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="34"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="36"/>
+      <c r="S21" s="37"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A22" s="35"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="36"/>
+      <c r="R22" s="36"/>
+      <c r="S22" s="37"/>
+    </row>
+    <row r="23" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="25"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="38"/>
+      <c r="O23" s="38"/>
+      <c r="P23" s="38"/>
+      <c r="Q23" s="38"/>
+      <c r="R23" s="38"/>
+      <c r="S23" s="39"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B7:S7">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="num" val="&quot;&lt;0&quot;"/>
+        <cfvo type="num" val="&quot;&gt;0&quot;"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>